--- a/Antenna for (Customer)_(Data Pull Name)_(Today's date in yyyymmdd).xlsx
+++ b/Antenna for (Customer)_(Data Pull Name)_(Today's date in yyyymmdd).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bkilker/Documents/GitHub/team-insights/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bkilker/Documents/GitHub/insights-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8003988-F8D8-A240-AA65-1779F86CECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFA8D34-44F9-E74D-8036-DB5B40BE95BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{21CEA298-9BCA-194F-8484-515554538965}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Service</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Cohort 1 (If applicable)</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
   </si>
   <si>
     <t>[Metric]</t>
-  </si>
-  <si>
-    <t>Metric Name</t>
-  </si>
-  <si>
-    <t>Cohort 2 (If applicable)</t>
   </si>
   <si>
     <t>All</t>
@@ -176,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -224,9 +215,6 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -658,10 +646,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783EA4B7-CBBC-DC4A-A869-9BE34CBC9738}">
   <dimension ref="A1:L3907"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I42" sqref="I42"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8:K8"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="17"/>
@@ -681,11 +669,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>8</v>
+      <c r="B1" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -699,11 +687,11 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="26" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -717,11 +705,11 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="26" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -735,11 +723,11 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="26" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -753,11 +741,11 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="26" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>14</v>
+      <c r="A5" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -786,40 +774,40 @@
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>9</v>
+      <c r="E7" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12">
